--- a/500all/speech_level/speeches_CHRG-114hhrg22990.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22990.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. All right. The Subcommittee on Government Operations and the Subcommittee on the Interior will come to order. And without objection, the chair is authorized to declare a recess at any time.    I want to thank you for coming, and I thank my other chairman here and ranking members for their willingness to embark on this topic.    For many individuals and families, the SNAP program is a vital lifeline to ensure that there is food on the table. And I think we can all agree that no one in America should go hungry. While most individuals and retailers in the SNAP program are honest participants, unfortunately, some do indeed take advantage of the system.    We will hear examples today of various ways individuals and retailers commit fraud in trafficking such as swapping SNAP benefits for other cash or illegal drugs. There was a raid in the Florida flea market just last month that was the largest SNAP trafficking bust in the program's history. And so far 22 owners of SNAP retailers at that flea market have been arrested or charged with over $13 million in fraud just for the past year.    We will also hear about the connection between SNAP trafficking and the ongoing opiod epidemic in Maine and across this country. American taxpayers deserve to know that their tax dollars are being spent effectively and wisely, and when someone abuses a system, they defraud the American taxpayers. They hurt individuals and families that are truly in need. Despite improvements in prior years, OMB designated the SNAP program as a high-error program due to the estimated $2.6 billion in improper payments for fiscal year 2015.    So we are here today to examine how the SNAP program can better serve families, more efficiently utilize taxpayer dollars, and prevent fraud and trafficking of SNAP benefits. Innovative efforts to leverage technology and analyze data such as Florida's identity verification process and Maine's effort to analyze out-of-state SNAP usage can provide real helpful insights.    And so I look forward to hearing from our witnesses about how we can improve the SNAP program to better ensure that the right benefits get to the families and individuals that need them most.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. I now recognize my good friend, the ranking member of the Subcommittee on Government Operations, Mr. Connolly, for his opening statement.</t>
   </si>
   <si>
-    <t>Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank you, Mr. Chairman, and welcome to our panel. And I want to thank you for holding this hearing.    I support the Supplemental Nutrition Assistance Program, which I think has proven to be an effectively managed program that does, in fact, reduce fraud and misuse. Individual and isolated examples of problems notwithstanding, there is very little evidence of widespread SNAP fraud. Actually, the evidence suggests that the Department of Agriculture investigates potential fraud pretty aggressively. State antifraud efforts are also functioning as effectively as possible, despite difficulties in conducting fraud investigations due to reduced funding and staff levels. Those antifraud efforts are important because SNAP benefits are a vital part of the national safety net.    SNAP provides people at or below 130 percent of the poverty line, which is currently an annual income of $26,100 for a family of three--good luck in living on that--$127 a month toward an affordable, adequate diet. About 70 percent of SNAP participants are families with children, and 25 percent are in households with seniors and people with disabilities.    SNAP also protects the overall economy. Because SNAP is an entitlement and provides money to people who need it, they spend it directly on food. CBO found that among policies implemented by Congress to stimulate economic growth and create jobs during the economic recession, SNAP had one of the largest increases in economic activity and employment per budgetary dollars spent. That is to say if you want a direct injection into the economy to stimulate, this is a great way to do it.    According to the Census Bureau, SNAP kept 5 million Americans out of poverty during the recession, which followed the 2008 financial crisis. That is an extraordinary number. Since then, SNAP spending has fallen--as you would expect as the economy recovers--by 7 percent in 2014, and the Center of Budget and Policy Priorities reports that reduced caseloads will continue in 2016 because of the growing and stronger economy.    I understand the concerns my friends on the other side of the aisle to ensure the SNAP program continues to work efficiently, and I think we have common ground on that. I too want to eliminate the small percentage of bad actors who misrepresent facts about themselves and cheat people in need.    In fiscal year 2012, over 100 FNS analysts and investigators around the country reviewed more than 15,000 stores and conducted nearly 4,500 undercover investigations. Over the last 10 years, more than 8,300 retail stores were permanently disqualified because of fraud.    I find the House majority's recent proposal in the war on poverty troubling. The answer to completely eliminating fraud in the SNAP program is not by converting it into a block grant program. Actually, block granting step is probably the first step to eliminating SNAP. That could be the fate of a number of safety-net programs such as child welfare services and elderly services. They were put together into the social services block grant. This year, the Republican budget eliminates them.    I would welcome the opportunity to work with my friends on the other side of the aisle to find ways to improve the SNAP program seeing as it actually serves more constituents often in their districts, rural districts than actually their Democratic counterparts. The absence of widespread fraud and the tiny potential savings from SNAP belie the purported interest sometimes in oversight.    So I look forward to the common ground. We want to make sure this program is effective and as clean as possible, but we don't want to harm in the process the people who rely on this program and use it to get back up on their feet and become productive citizens.    With that, I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Chairman.    I want to waive my opening statement so we can listen to our witnesses, and I want to especially thank you all for being here today. The representatives and witnesses from Maine and Florida, I believe, are particularly to be recognized for traveling all this way to provide their guidance and expertise on this subject. Having come from the executive branch of State government, I know how hard you work, and you are on the frontlines. We really appreciate what you do, so thank you for being here today to share your expertise, one and all.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Sister from another mother.    [Laughter.]</t>
   </si>
   <si>
@@ -112,54 +100,36 @@
     <t xml:space="preserve">    Mr. Meadows. And let the record reflect that all witnesses answered in the affirmative. And in order to allow time for discussion, I would ask that you please limit your oral testimony to 5 minutes. However, your entire written testimony will be made part of the record.    And I would go ahead and now recognize Mr. Concannon for 5 minutes.</t>
   </si>
   <si>
-    <t>Concannon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Concannon. Thank you very much. Chairmen and members of the committee, I appreciate the opportunity to explain directly FNS's efforts to assure the integrity of the SNAP program. Integrity is essential to SNAP's success, and so it's paramount to me personally and to the agency. And as I've said many times, we have zero tolerance for fraud in SNAP.    SNAP provides essential food assistance, nutrition education, work-support services to 44.3 million low-income individuals. In 2014, 64 percent of recipients were children, seniors, and those with disabilities, and 42 percent lived in a household with earnings. To those who claim that SNAP discourages work, I say that the data clearly states otherwise.    In SNAP, those who can work must register to do so and accept a job if offered. This core program requirement cannot be waived by a State. In 2015, 13.6 million SNAP recipients were registered to work. USDA funds SNAP's employment and training programs to support States in helping recipients find and keep good-paying jobs.    In 2015, SNAP EBT served more than 1 million recipients. Unfortunately, some State agencies do too little to use the Federal funding, technical assistance, and support available. So USDA has expanded its capacity to help States meet their E&amp;T responsibilities through the newly established Office of Employment and Training, staff of the team with long experience at both the Federal and State level. They're building a more robust foundation of monitor, improve, and promote SNAP EBT.    I believe strongly that the public's concern over high SNAP participation must be resolved in the right way, by getting people jobs. The wrong way is to reduce cost, is to kick people off SNAP, or worse, block grant it, which would also erode the national standards and accountability that helps make SNAP effective.    Let me turn now to program integrity. USDA's focus on identifying, penalizing, and excluding those who seek to defraud SNAP has reduced trafficking from 4 percent to 1.3 percent over the last 20 years. While this is real progress when almost $70 billion total are involved, there's no acceptable level of fraud, and complacency is never an option. Continuous attention, energy, and diligence are required.    This administration is pursuing an energetic anti-trafficking strategy. First, we've organized SNAP retailer management into a single centralized business structure that targets resources to high-risk areas. Second, we use data analytics to closely track EBT transactions and identify stores most likely to traffic. Third, we've upgraded our alert system with state-of-the-art technology to better detect suspicious activity and are strengthening policies to combat misuse of benefits and impose stronger penalties against retailers who break the rules. Store owners that traffic are disqualified for life.    And on the GAO report, we're in mutual agreement and support both the findings and the recommendations of the GAO audit. These efforts bring real results. In 2015, we issued almost 2,700 sanctions against violating retailers, a 21 percent increase over the prior year. More than 1,900 store owners were permanently disqualified for trafficking or falsifying applications, and over 700 are sanctioned for other violations.    We believe that predictive data analytics, combined with related information such as excessive requests for card replacements can be real game-changers in targeting the most likely trafficking recipients. Unfortunately, very few States really take advantage of this option, so there's much room for improvement.    While the Federal Government is responsible for controlling retailer trafficking, action against recipient trafficking, the other side of the same crime, is a State agency responsibility. States conduct investigations of recipient fraud, disqualify violation of SNAP, and make claims to recover improperly received benefits.    That said, I must caution that while some States see photo EBT cards as a solution to trafficking, it does not work as well as they may think. Let me explain. SNAP is a household benefit, so any member of that household may legally use that card. Putting one person's photo on the card simply creates confusion at the point of sale. A card with a photo cannot and will not prevent two bad actors from breaking the law, case-in-point, the 2001 audit in the State of Missouri. But it is an option for States, and our main concern is that States that implement photo EBT comply with Federal law and regulation. That's part of our oversight duties.    One final but very important point I want to make, the majority of SNAP recipients honor the rules, play by the rules, as is true of the majority of retailers as well. The Nation entrusts USDA and our State partners to administer SNAP with accountability and integrity. Americans expect and deserve their government to manage hard-earned tax dollars. Without that, we simply cannot sustain public confidence. That's why we are committed to tough action to find and punish fraud.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you.    Ms. Brown, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brown. Chairman Meadows, Ranking Member Lawrence, and members of the subcommittees, I'm pleased to be here today to discuss our work on Federal and State efforts to combat fraud by SNAP recipients. My remarks are based on our 2014 report with updates on USDA actions on our recommendations.    We studied the efforts of 11 States to prevent recipient fraud and detect recipient trafficking. First on preventing recipient fraud, States are responsible for investigating possible intentional program violations such as whether applicants have made false or misleading statements in order to obtain benefits. All 11 selected States were using well-known tools either required or recommended by USDA for detecting fraud. States were operating fraud hotlines and comparing information provided by applicants with data from various sources to check for accuracy. Some States were performing additional checks such as paying private companies for data to confirm the income information provided by applicants.    However, most of these States reported difficulties in conducting fraud investigations in part due to steady or even reduced staffing levels at a time when the numbers of SNAP recipients had grown significantly. Further, the size, range of duties, and programs covered by the investigative units varied widely by State. We recommended that USDA explore ways that Federal financial incentives could better support cost-effective State fraud prevention efforts.    Regarding detecting recipient trafficking, concerns had been raised that recipients may be trafficking their benefits by exchanging them for cash or goods and services on e-commerce and social media sites. In response, USDA recommended States use certain free Web-based automated tools to help detect such trafficking. However, State officials reported problems with these tools, and upon testing them, we found them to be of limited use. In fact, we found that manually searching e-commerce Web sites produced more positive results than were detected by the automated tools. We recommended that USDA reassess its guidance.    We also reviewed USDA's guidance to States regarding recipients who requested multiple EBT card replacements. This can be but is not necessarily an indication of trafficking. We found that States had limited success detecting fraud using USDA's approach. Instead, using data we obtained from three States, we developed a more targeted and efficient approach. By combining data sources, we identified households that had requested multiple replacement cards and, at around the same time, had also made purchases considered to be potential signs of trafficking. This type of approach can help identify households at higher risk of trafficking for benefits. And we recommended that USDA revisit its guidance in this area.    Finally, we also studied USDA oversight of State antifraud activities. We reported that USDA had increased its oversight in recent years. It issued new regulations and guidance and commissioned studies on recipient fraud. Also, in fiscal year 2013 for the first time, the Department examined all 50 States' compliance with Federal requirements governing SNAP antifraud activities.    Despite these efforts, we found that USDA did not have consistent and reliable data on States' activities. Its reporting guidance lacked specificity, and States did not have a uniform understanding of what should be reported. As a result, USDA could not compare activities and performance across States. We recommended the Department take steps to enhance the consistency among State reports.    USDA officials agreed with all of our recommendations and are taking substantive steps in response. As you have just heard, they have made progress in studying improved anti-trafficking approaches, and they have redesigned the forms States used to report investigations. However, they have yet to finalize actions that would fully address all of our recommendations. Given the significant size of the program, the reality of constrained public resources, and the constant advances in technology, it's particularly important that USDA make every effort to make sure SNAP funds are used for their intended purposes.    This concludes my statement. I'm happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Ms. Brown.    Ms. Mayhew, you are recognized for 5 minutes, but before you start, I wanted to just say it was interesting to hear from your Governor about really leaving the home in an unbelievable age of 11 to go out and--so someone who has experienced poverty firsthand and now has raised to the highest level of the executive government in the State of Maine is a great story about American greatness. So, Ms. Mayhew, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Mayhew</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Mayhew. Thank you, Chairman Meadows and members of the subcommittees. I appreciate the invitation to be here today to share some of our key welfare reforms that have helped to deter fraud, protect benefits for the truly needy, and guard against waste of precious taxpayer dollars.    When Governor LePage took office in 2011, he prioritized reforming Maine's welfare programs to help lift families and individuals out of poverty and away from welfare dependency. Program integrity and accountability are critical to those reforms. There is no doubt that fraud exists in these programs, and every dollar that is diverted through fraudulent and criminal activity is a dollar taken away from a child or a family in need. The programs we have put in place to reduce fraud and abuse help to ensure that taxpayer dollars are reaching those in need, not fueling criminal activity.    Our program integrity efforts have focused on data analytics, engagement with law enforcement, and commonsense measures to guard against fraud and abuse. I want to share a few of our efforts and make some suggestions for further improvements in the SNAP program. We have provided a number of recommendations attached to my testimony.    Working with local law enforcement officials, we found regular instances of multiple EBT cards recovered in drug busts. In most cases, the cards are not issued to the suspects who are holding them. We know there is an unfortunate connection between benefits trafficking and the drug trafficking world, but current Federal SNAP regulations often create barriers to pursuing these traffickers. FNS rules provide that if someone has the EBT card and the PIN, they are considered an authorized user of the card. Regulations should require authorized users to register with the welfare agency and be limited to no more than three per case, similar to WIC.    Under Federal law, States have the option of placing photos on EBT cards. Maine pursued this option to help address the trafficking in EBT cards for drugs or cash. When someone's picture is on their card, it follows that they are less likely to sell it or trade it. Maine's photo EBT program is voluntary, and we currently have about 60,000 cards with photos out of 101,000 SNAP cases.    While this is a legal option for all States, myriad regulations and rules place a chilling effect on States that may be considering photos. This basic protection against fraud and abuse should be streamlined so States can implement this reform without undue burden. It would also be a reasonable step to require States to place photos on their EBT cards to deter fraud.    In 2011, Maine had more than $15 million in welfare benefits spent outside of Maine, including significant amounts in places like the Bronx, Brooklyn, Philadelphia, and Worchester, Massachusetts. Our drug enforcement agents in Maine have been clear that these cities are hubs for heroin trafficking and other drugs which flow up the I-95 corridor to Maine.    Our data system identifies anyone using a Maine EBT card exclusively in another State for 2 consecutive months. We then follow up to confirm Maine residency and appropriate use of the benefit. Our efforts have reduced out-of-state use, but the data still shows uses of SNAP benefits in places all over the country like New York, California, and Florida. Federal regulations don't currently allow States to restrict SNAP benefits to certain geographic areas. We believe there should be some reasonable restrictions on the mobility of EBT cards.    Often, what SNAP benefit cards are trafficked, it is in conjunction with a SNAP-approved retailer who's helping turn the card to cash that can be used to purchase things other than food. In a recent Maine case of suspected retailer fraud, a small store with just one cash register had SNAP reimbursements totaling nearly that of a large local Hannaford grocery store with 18 cash registers. We found numerous purchases of $300 and above in this small store that had no grocery carts. This same store is suspected of trading cash for EBT cards and helping SNAP participants commit tax fraud.    States do not have the authority to remove noncompliant or fraudulent stores from SNAP participation. To assist with this problem, States should be given the authority to investigate and remove offending retailers similar to WIC. All States should operate robust welfare fraud investigation units. To incentivize this, States should be allowed to retain 50 percent of funds collected from welfare fraud overpayments instead of the current 35 percent.    Additionally, Federal rules should require that recipients cooperate with State welfare fraud investigators if there is a credible allegation of fraud or risk losing their benefits. Maine is determined to address the issue of fraud and to protect benefits for our neediest residents. States need additional tools. Federal laws and rules should allow and encourage States to pursue meaningful program integrity efforts without unnecessary barriers.    Today, policies that combat fraud are too often sacrificed in the name of convenient and expeditious access to welfare benefits. We hope that Congress and the Federal Government will give serious consideration to our suggested reforms and will work to ensure that laws and regulations give States a fighting chance against fraud and criminal activity. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Ms. Mayhew.    Mr. Carroll, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Carroll</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carroll. Thank you, Chairman Meadows. It's an honor to be here with you today and share some insights from Florida.    The SNAP eligibility process has changed significantly over the past 20 years. Today, Florida is a leader in the modernization of our social services system. Virtually every State in the Nation has come to Florida to study our model. Today, we receive 93 percent of our applications online. Eligibility staff was reduced from 7,000 to 4,000. Cost-per-eligibility transaction dropped from $30 per application to $7, all while maintaining accuracy rates at or above 99 percent. All of these are at benchmark levels on a national level. Our experience is testament to how government can run an operation that is cost-effective, efficient, and optimizes access to services in a simplified way for customers.    We do have a new fight on our hands, however, and it's identity theft and EBT trafficking. Our challenge now is to balance the need to continue being efficient with the need to maintain the integrity of this program going forward, and I am not talking about the individual who may fudge their income or their household composition. We're talking about major criminal enterprises with ties to drug sales, prostitution, and human trafficking. We have to work together and we have to work quickly to invest in the right technology, integrate fraud detection in every level of our process, and coordinate more effectively a response that's much more urgent than we currently have.    In Florida, we've implemented effective front-end detection systems and commonsense legislation to address obvious fraud and abuse at the roots. We banned EBT card transactions at all adult entertainment and gambling venues and in the purchase of alcohol, we've created a fraud reward program, we've enhanced criminal penalties for fraud, and we've revised the definition of EBT trafficking in Florida law to include swapping food benefits for weapons or controlled substances. Last year, our Office of Public Benefits Integrity conducted more than 23,000 investigations, which resulted in cost avoidance of $27.6 million of benefits that would have been otherwise administered to folks who were not eligible.    How can we improve the system? Florida has demonstrated the success of advanced technology with our automated identity verification tool and the complete automation of the system. We think we need to continue to invest in technology like this both at the front end and the back end of the system. We also would like to work with our Federal partners to build on these capabilities and eliminate the one-size-fits-all approach. We have to give States the flexibility and the space to implement and execute these programs and policies while still being able to come up with innovative solutions that meets the needs of the citizens in their State.    We also suggest that we consider changing the current burden of proof of recipient fraud from a clear-and-convincing standard to a preponderance of the evidence, the same standard that's used for retailer fraud. Right now, it is easier to arrest a recipient than to disqualify them from the SNAP program.    When it comes to retailer fraud, and this is where we feel a real sense of urgency in Florida, we need a much more comprehensive and urgent approach. FNS must start immediately suspending a SNAP retailer upon a criminal arrest. We need to require that retailers repay trafficked amounts in administrative sanctions that rarely happens now. SNAP retailer applications must be scrutinized more closely before vendors become authorized retailers. And we have to change the way we provide incentives to States and move away from a pay-and-chase model and start focusing on an upfront prevention model.    I do want to talk briefly about the case that you mentioned, Opa-locka. It was the largest food stamp trafficking bust in Federal programs history. Twenty-two retailers were arrested. Investigators found cash and guns. They found storefronts that were actually drug sale operations, human trafficking, and prostitution operations. They found empty storage rooms, rotten produce, empty display boxes, plastic fruit and vegetables on display. One store owner was an illegal alien who used someone else's Social Security number to get FNS authorization. Another owner was here on a work permit. Another failed to disclose they were a convicted felon.    Since 2011 when DCF first reported the fraud, nearly $89 million in SNAP transactions have taken place at this location. DCF now has to review 41,000 SNAP recipients just since July, and that number is growing, to find cases that might rise to the level of clear and convincing evidence. And today, we've not been able to disqualify one SNAP recipient who was involved in that. The trafficking continues. At least eight retailers continue to operate in that location. In fact, the 2 weeks following the arrest, they did over $163 in EBT redemptions.    Clearly, we can do better than this. In the State of Florida we're absolutely committed to making sure that folks who are eligible to receive these free services receive them in the most accurate and timely fashion possible, but we are equally as committed to making sure that we maintain the integrity of this program. And we do want to work with our Federal partners to make sure that happens.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Carroll, for your illuminating testimony.    Ms. Dean, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Dean</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Dean. Thank you. Chairman Meadows, Ranking Member Lawrence, thank you for the invitation to testify today. I'm Stacy Dean, vice president for Food Assistance Policy at the Center on Budget and Policy Priorities, a nonpartisan policy institute.    I'm really pleased to have the opportunity to talk to you today about program integrity in SNAP. I've worked on SNAP for more than 20 years, and one of the most rewarding parts of my job is to work directly with State officials on improving the program at the local level, and that includes policy and operations related to program integrity.    SNAP is the Nation's most important anti-hunger program. It currently helps about 44 million low-income Americans, or 1 in 7 Americans, to afford a nutritionally adequate diet each day at the more than 200,000 retail store outlets that take the benefits.    Despite its modest benefits which average only $1.41 per person per meal, it has powerful short- and long-term impacts. It helps family and communities weather tough economic times, it reduces poverty and food insecurity, it improves health, and it does support work. SNAP's successes can largely be attributed to its national entitlement structure, it's relatively uniform eligibility standards, its standards for program administration and integrity, and the fact that it's a food-based benefit.    SNAP does operate with efficiency and has relatively sound program integrity. As I've outlined in my testimony and as you heard from Under Secretary Concannon, SNAP has a strong track record on issuing benefits accurately and identifying and preventing fraud. Critics who claim that caseload growth in recent years has been driven by waste, fraud, and abuse are just simply incorrect.    Program integrity has two fundamental components. One is reducing errors, which is ensuring that benefits are issued to the correct people in the correct amount, and most error in the program resulting under--around error is a result of human error meaning basic mistakes, not fraud. States actually report that the majority of error in--that occurs through payment--through payment accuracy measurement is their fault and not clients'.    By contrast, fraud is when clients or retailers collude to exchange benefits for nonfood items or some of the unfortunate activities you've heard of already today, or intentionally lie to the program for personal benefit. Each of these issues, error and fraud, merits their own solutions. Identifying and proving a retailer is trafficking is quite a different problem than ensuring State workers throughout the country understand program rules and are applying them correctly.    We support the ongoing effort to maintain and improve SNAP's program integrity. As new technology becomes available and as awareness of how problems are arising, there will just continue to be opportunities to improve SNAP accuracy and prevent fraud, and that's why the most recent farm bill included several new initiatives.    We encourage you to assess new ideas against several criteria. The first question is always does it work? USDA and States have a strong history of testing and trying new ideas to assess impacts in order to determine the potential effectiveness nationally, and I think the Florida demo is a great example of that.    This--another question is what's the scope and scale of the problem under discussion? Some of the most egregious examples of fraud are highly isolated incidences. They are completely unacceptable, but they may be so infrequent such that they shouldn't drive the programs fundamental approach to addressing more common everyday program integrity issues. Building processes based on the assumption that everyone who uses this program is a criminal just simply isn't an effective way to run the program.    Obviously, we need to look at what are the proposed--or proposed solutions, projected costs, and benefits. I do think it's important to--even though this seems obvious, when a proposal is promoted as an anti-fraud activity, some are really reluctant to rigorously weigh its benefits and costs out of fear of being perceived as soft on fraud. And data-matching, I think, is a very good example. High-quality focused matches to test the veracity of client statements against available data is a terrific tool both for access and integrity, but expanding matches to--against data that may be completely irrelevant to a household's current circumstances is a waste of resources and could undermine integrity.    Will the proposal have any negative consequences? Any new program integrity proposal needs to consider the implications on access and whether all individuals, particularly individuals with disabilities or other special needs, could navigate them.    And finally, who's promoting the change? Often, private vendors selling program integrity solutions are some of SNAP's biggest critics. Their self-interest in promoting the perception of a program in crisis really has to be considered.    Cost, not a lack of interest or new ideas, is often our biggest obstacle to addressing fraud and error. While the Federal Government shares in the cost of administering the program, State budgets are often the limiting factor to ensuring the best systems and technology are deployed nationwide. Many States have downsized their program operations during the recent recession and have not yet rebuilt the capacity to take full advantage of new technology options or the staff resources that could improve their efforts.    So I look forward to the discussion today. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Ms. Dean.    The chair recognizes the vice chair of the Subcommittee on Government Operations, the gentleman from Michigan, Mr. Walberg.</t>
   </si>
   <si>
-    <t>Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman, and thanks to the panel for being here.    This week, my colleagues on the Republican side of the aisle began unveiling a policy, as was mentioned earlier, an agenda that is intended to tackle some of our country's biggest challenges. The first plank of our initiative looks at ways to address poverty, and SNAP is a key part of our safety net to serve and support the most vulnerable and make sure that that is the population we really and intentionally meet the needs of.    Our initiative is aimed at lifting people out of poverty and onto the ladder of opportunity, and so, Commissioner Mayhew, I was especially struck in your testimony, your personal testimony, about the lessons your family passed on to you about the value of hard work, depression-era, not you ----</t>
   </si>
   <si>
@@ -337,9 +307,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman. I want to go back to a couple of things that were brought up earlier.    Mr. Concannon, in your written testimony you say that 42 percent of SNAP benefits lived in a household with working adults. Can you positively affirm that the working adult in the household is the SNAP participant? That is a yes or no.</t>
   </si>
   <si>
@@ -421,9 +388,6 @@
     <t xml:space="preserve">    Mr. Meadows. I thank the gentleman.    The chair recognizes the gentlewoman from the District of Columbia, Ms. Eleanor Holmes Norton, for 5 minutes.</t>
   </si>
   <si>
-    <t>Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. I just want to mention that the issues you are running into with drug testing is we can't just drug-test people. There has to be some predicate laid in a constitutional system to doing that, and that is why I think courts have cast some doubt on doing drug testing as drug testing.    I do want to note, especially the GAO report where no new recommendations were made, I put them in that the program is making some progress. And I note that the GAO report does note some continuing challenges, and the first one it notes is inadequate staffing levels. You know, if we want more of something, then we have to do more of something else.    So I want to congratulate all of you involved in the program for what you have been able to do at a time of sequestration with what resources you have. Congress is quick to chastise programs for what they haven't done but offers very little self-criticism of what its obligation is, so I do want that for the record to be known.    I also want to say for the record some of us have a tradition of trying to live for a week on SNAP benefits. All I can tell you, it took me close to starvation when I tried to adhere to it for a full week, so I am pretty convinced that they are not extravagant rewards here for needing what we used to call food stamps.    I was interested in this very low fraud rate because it is among the lowest if not the lowest in the Federal Government. You might expect it to be the highest given what we have just gone through in the Great Recession and the like. And so I am trying to get to the bottom of what is left. I am not sure anybody can get it to zero, and I compliment you for trying to do that.    But I want to know if the main part of SNAP's improper payments are administrative or are they fraud?</t>
   </si>
   <si>
@@ -454,9 +418,6 @@
     <t xml:space="preserve">    Mr. Meadows. I thank you.    The chair recognizes the gentleman from Wisconsin, Mr. Grothman, for 5 minutes.</t>
   </si>
   <si>
-    <t>Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Thanks much. I think we are eventually going to call on Ms. Mayhew to ask questions, but I will just make a little comment first. I think there is probably no program in my district that people come up and talk to me about more. People are aware almost anywhere that they sell food stamps or whatever, SNAP, for 50 cents on the dollar, and of course if you needed every dollar on food, you wouldn't be selling your food for 50 cents on the dollar, so that by itself indicates that there is--you know, people are getting these things who don't need them at all.    You know, I know somebody whose sister runs a grocery store, and she says you can tell just by what is in the cart who has got the SNAP and who is paying their money, and I think that is routine, which also shows there is something fundamentally wrong program. It is one of many welfare-related programs that our employers attribute to having a hard time getting employees to work because of course the more you work, the more you lose the benefits.    And finally, it is something more and or we are hearing over time that discourages people from raising children in wedlock because, of course, if you raise children in wedlock, like many other welfare benefits, you lose your SNAP. I think that is probably, of all the bad things about the program, the worst. It is one more inducement to raise children out of wedlock, which is unfortunate.    But we are going to start with Ms. Mayhew. Could you comment on after you went through the wonderful things you did are SNAP benefits still being sold for 50 cents on the dollar in Maine? What is the going rate as far as you know?</t>
   </si>
   <si>
@@ -538,9 +499,6 @@
     <t xml:space="preserve">    Mr. Meadows. I thank the gentlewoman.    The chair recognizes the gentleman from Ohio, Mr. Jordan, for 5 minutes.</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. Thank you, Mr. Chairman, for having this hearing and for our witnesses and the chairman for his work in this area, extensive work in this area.    Mr. Concannon, how much money is spent annually on the food stamp program both--well, how much is spent annually?</t>
   </si>
   <si>
@@ -760,9 +718,6 @@
     <t xml:space="preserve">    Mr. Meadows. I thank the gentleman.    The chair recognizes the gentleman from Pennsylvania, Mr. Cartwright, for a generous 5 minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. I thank the generous chairman. Mr. Chairman, our colleague from Wisconsin just lately made a comment to the effect that the current SNAP program, the food stamps program has the effect of encouraging women to bear children out of wedlock. And to respond to that, I would like to recognize and yield to the gentlelady from the District of Columbia for 30 seconds.</t>
   </si>
   <si>
@@ -868,9 +823,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Thank you. Good afternoon.    And I guess if you don't have as many as you need and this committee is concerned with you stopping fraud, they will be very helpful to increasing the budget for the SNAP program so that you can have the funding to be able to enforce it, because although I think the chairman is sincere and, you know, is one of the people who is concerned about the right individuals having this, my concern is that I don't think everybody on his side really thinks that way as well.    I sit on the House Committee on Agriculture and I sit on the Subcommittee on Nutrition, and in the last 17 months we have had 14 hearings on SNAP, 14 hearings on SNAP. And the purposes of those hearings is in my mind being to say why SNAP should be cut back, why it is not effective, why we need to stop this, why we need to stop feeding the people that we are feeding. Why do we need to stop feeding people? I mean, my mother would lose her mind if you denied someone a plate of food because it was painful for you to give it up.    This program, we say, is about lifting people out of poverty, and I think the indictment is on us as a body, this Congress, who has not lifted enough people fast enough as we should. And in turn what is happening I think more often than not is that we have these hearings to indict the people who are recipients of SNAP program, the recipients of those individuals who are still living in poverty.    So we have said that SNAP is a program that we would like to focus quite a bit of our time on for the abuse and the fraud that it has. From the statistics it seems that there is only 1 percent of the 45 million recipients and 1 percent of the money that is going is going for trafficking. Would we like to see that those numbers are corrected? Of course. But we need the funding to be able to do that because are we going to take the funding out of the people that are receiving the money or are we going to add additional funding for the administrative portion? That is the question that I would like to pose on the other side.    You know, and one of the other issues that I am very certain about is it seems that the legislative proposals are really to eliminate the ability of States and territories to request waivers from the strict work requirements already contained in the SNAP laws. And the reason that is a concern is that because there is a chronic rate of high unemployment rate in many of these areas.    We talked about people going to convenience stores rather than going to the big box or the grocery stores. More often not it is because they can't afford to drive to those other places because they live in food deserts. And, you know, it is not that people don't want to work but there are no jobs for them to work. And are we going to keep these time restrictions and cut out the waivers for this so that people now don't have a meal?    The majority of people who are on SNAP are not able-bodied individuals. They are women and children and elderly people who cannot work.    Ms. Dean, do you think elimination of work waivers, especially in high areas of unemployment, would impact--how would that impact on those places that have unemployment?</t>
   </si>
   <si>
@@ -901,9 +853,6 @@
     <t xml:space="preserve">    Mr. Meadows. The chair recognizes the gentlewoman from New Mexico, Ms. Lujan Grisham.</t>
   </si>
   <si>
-    <t>Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman, and thank you very much for this hearing.    And frankly, I agree with my Democratic colleagues in recognizing that the SNAP program as a policy is a very important policy to protect seniors and children and families in poverty and folks in the military with a focus on making sure that they don't go hungry. And like many of my colleagues on this committee, I want to make sure that we address the fraud issues and we also, as Ms. Plaskett, my colleague from the Virgin Islands just identified, that there are issues that we need to address that don't meet the requirements of the program but still shine a light on the extraordinary circumstances that so many of these families face.    And I want to point out that even when we have fraud where someone is selling their food stamp benefit, they are in collusion with the grocery store in the private sector, and so we really need to be thinking about that. And I want everyone to know, and I think they do, that SNAP I think is one of the most important policies and programs in this country and that I believe, based on the evidence that I have seen, that generally speaking it has a very low fraud rate, and I think that that is a remarkable standard. What I wish for every program is that there was a zero fraud rate.    But I do want to talk about the integrity of the program as a whole, and I am very, very concerned about that on two levels. I have very deep concerns about the integrity of the SNAP program in my State in New Mexico. I believe that these problems are clearly being caused by the way the State is administering the program and the fact that I don't believe that the Federal Government has been providing sufficient oversight, and the results are that many eligible New Mexicans who need emergency benefits are not getting them, and the overall result of course is that they are going hungry, which is why New Mexico has some of the hungriest children and families in the country still.    Now, Mr. Concannon, in your testimony you are very clear that FNS needs to take a look--and I think I am quoting you--look carefully at States that are pushing recipients off SNAP programs or are not processing SNAP applications or application re-certifications in a timely manner. And I know that you are aware that the State of New Mexico has been doing just that because we are in court, we have sent you letters, we have asked you to do an investigation. We have been very involved.    And that these New Mexico advocates that you and I have personally spoken about have been raising this issue in fact with your office for years. In fact, our office received a formal letter in April from the American Federation of State, County, and Municipal Employees, which represents many of the State employees involved in this issue who administer the SNAP program. And, Mr. Chairman, I ask for unanimous consent to enter the letter into the record.</t>
   </si>
   <si>
@@ -920,9 +869,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. And I am out of time ----</t>
-  </si>
-  <si>
-    <t>Ms Lujan Grisham--</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Concannon.--on the 26th ----    Ms. Lujan Grisham.--Mr. Chairman. I know that you are really patient with me, but you know what, giving them technical assistance when they are lying to you, they are cheating the beneficiaries, they are not protecting the beneficiaries, they are in Federal court, this requires investigatory action and audits, which is exactly what this entire committee wants for all of these ----</t>
@@ -1870,11 +1816,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1896,11 +1840,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1922,11 +1864,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1948,11 +1888,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1972,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2000,11 +1936,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2024,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2052,11 +1984,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2076,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2102,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2130,11 +2056,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2154,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2182,11 +2104,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2208,11 +2128,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2234,11 +2152,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2260,11 +2176,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2286,11 +2200,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2312,11 +2224,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2338,11 +2248,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2364,11 +2272,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2390,11 +2296,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2416,11 +2320,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2442,11 +2344,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2468,11 +2368,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2494,11 +2392,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2520,11 +2416,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2546,11 +2440,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2572,11 +2464,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2598,11 +2488,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2624,11 +2512,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>47</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2650,11 +2536,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2676,11 +2560,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>47</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2702,11 +2584,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2728,11 +2608,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2754,11 +2632,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>47</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2780,11 +2656,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2806,11 +2680,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2832,11 +2704,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>47</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2858,11 +2728,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2884,11 +2752,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>47</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2910,11 +2776,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2936,11 +2800,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2962,11 +2824,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2988,11 +2848,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3014,11 +2872,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3040,11 +2896,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3066,11 +2920,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3092,11 +2944,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3118,11 +2968,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3144,11 +2992,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3170,11 +3016,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3196,11 +3040,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3222,11 +3064,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3248,11 +3088,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3274,11 +3112,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3300,11 +3136,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3326,11 +3160,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3352,11 +3184,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>44</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3378,11 +3208,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3404,11 +3232,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>44</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3430,11 +3256,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3456,11 +3280,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>44</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3482,11 +3304,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3508,11 +3328,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>44</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3534,11 +3352,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3560,11 +3376,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>44</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3586,11 +3400,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3612,11 +3424,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3638,11 +3448,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>44</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3664,11 +3472,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3690,11 +3496,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>44</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3716,11 +3520,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3742,11 +3544,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>44</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3768,11 +3568,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3794,11 +3592,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>44</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3820,11 +3616,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3846,11 +3640,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>44</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3872,11 +3664,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3898,11 +3688,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>44</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3924,11 +3712,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3950,11 +3736,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3976,11 +3760,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4000,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G84" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4028,11 +3808,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4052,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
-      </c>
-      <c r="G86" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4080,11 +3856,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>32</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4104,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G88" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4132,11 +3904,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>32</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4156,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
-      </c>
-      <c r="G90" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4184,11 +3952,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>32</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4208,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G92" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4236,11 +4000,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>32</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4260,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G94" t="s">
+        <v>96</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>107</v>
-      </c>
-      <c r="H94" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4288,11 +4048,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4312,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
-      </c>
-      <c r="G96" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4340,11 +4096,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4364,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>106</v>
-      </c>
-      <c r="G98" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4392,11 +4144,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>32</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4418,11 +4168,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4442,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4468,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>106</v>
-      </c>
-      <c r="G102" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4496,11 +4240,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>38</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4520,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>106</v>
-      </c>
-      <c r="G104" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4546,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4574,11 +4312,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>38</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4598,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>106</v>
-      </c>
-      <c r="G107" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4626,11 +4360,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>38</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4650,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>106</v>
-      </c>
-      <c r="G109" t="s">
-        <v>107</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4678,11 +4408,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4704,11 +4432,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>135</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4730,11 +4456,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4756,11 +4480,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>135</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4782,11 +4504,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4808,11 +4528,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>135</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4834,11 +4552,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4860,11 +4576,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>135</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4886,11 +4600,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>32</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4912,11 +4624,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>135</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4938,11 +4648,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4964,11 +4672,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>146</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4990,11 +4696,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>38</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5016,11 +4720,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>146</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5042,11 +4744,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>38</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5068,11 +4768,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>146</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5094,11 +4792,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>44</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5120,11 +4816,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>146</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5146,11 +4840,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5172,11 +4864,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>146</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5198,11 +4888,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>44</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5224,11 +4912,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>146</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5250,11 +4936,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>41</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5276,11 +4960,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
         <v>146</v>
-      </c>
-      <c r="H133" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5302,11 +4984,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5328,11 +5008,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>146</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5354,11 +5032,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5380,11 +5056,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>146</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5406,11 +5080,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5432,11 +5104,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>146</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5458,11 +5128,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>146</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5484,11 +5152,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5508,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5536,11 +5200,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>44</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5560,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5588,11 +5248,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>44</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5612,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5640,11 +5296,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5666,11 +5320,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>174</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5692,11 +5344,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>32</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5718,11 +5368,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>174</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5744,11 +5392,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>32</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5770,11 +5416,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>174</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5796,11 +5440,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>32</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5822,11 +5464,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>174</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5848,11 +5488,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>32</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5874,11 +5512,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>174</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5900,11 +5536,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>32</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5926,11 +5560,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>174</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5952,11 +5584,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>32</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5978,11 +5608,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>174</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6004,11 +5632,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>32</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6030,11 +5656,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>174</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6056,11 +5680,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6082,11 +5704,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>174</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6108,11 +5728,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>38</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6134,11 +5752,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>174</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6160,11 +5776,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>38</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6186,11 +5800,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>174</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6212,11 +5824,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>38</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6238,11 +5848,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>38</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6264,11 +5872,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>174</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6290,11 +5896,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>38</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6316,11 +5920,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>174</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6342,11 +5944,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>174</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6368,11 +5968,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>38</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6394,11 +5992,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>174</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6420,11 +6016,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>38</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6446,11 +6040,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>174</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6472,11 +6064,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>38</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6498,11 +6088,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>174</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6524,11 +6112,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>38</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6550,11 +6136,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>174</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6576,11 +6160,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>38</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6602,11 +6184,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>174</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6628,11 +6208,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>38</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6654,11 +6232,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>174</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6680,11 +6256,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>38</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6706,11 +6280,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>174</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6732,11 +6304,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>38</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6758,11 +6328,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>174</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6784,11 +6352,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>38</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6810,11 +6376,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>174</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6836,11 +6400,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>174</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6862,11 +6424,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>44</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6888,11 +6448,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>174</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6914,11 +6472,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>44</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6940,11 +6496,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>44</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6966,11 +6520,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>174</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6992,11 +6544,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>38</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7018,11 +6568,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>174</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7044,11 +6592,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>38</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7070,11 +6616,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>174</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7096,11 +6640,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>38</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7122,11 +6664,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>174</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7148,11 +6688,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>44</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7174,11 +6712,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>174</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7200,11 +6736,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>174</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7226,11 +6760,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>44</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7252,11 +6784,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>174</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7278,11 +6808,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>44</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7304,11 +6832,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>174</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7330,11 +6856,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>44</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7356,11 +6880,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>174</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7382,11 +6904,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>38</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7408,11 +6928,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7434,11 +6952,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>38</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7460,11 +6976,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>174</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7486,11 +7000,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>38</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7512,11 +7024,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7538,11 +7048,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>174</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7564,11 +7072,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7590,11 +7096,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>248</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7616,11 +7120,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>135</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7642,11 +7144,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>248</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7668,11 +7168,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>32</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7694,11 +7192,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>248</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7720,11 +7216,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>44</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7746,11 +7240,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>248</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7772,11 +7264,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7798,11 +7288,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>35</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7824,11 +7312,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7850,11 +7336,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>35</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7876,11 +7360,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7902,11 +7384,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>35</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7928,11 +7408,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>35</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7954,11 +7432,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>12</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7980,11 +7456,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8006,11 +7480,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>41</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8032,11 +7504,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8058,11 +7528,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>41</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8084,11 +7552,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8110,11 +7576,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>41</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8136,11 +7600,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8162,11 +7624,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>32</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8188,11 +7648,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8214,11 +7672,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8240,11 +7696,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>32</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8266,11 +7720,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8292,11 +7744,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>32</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8318,11 +7768,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8344,11 +7792,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>32</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8370,11 +7816,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8396,11 +7840,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>32</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8422,11 +7864,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8448,11 +7888,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>32</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8474,11 +7912,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8498,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>283</v>
-      </c>
-      <c r="G257" t="s">
-        <v>284</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8526,11 +7960,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>44</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8550,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>283</v>
-      </c>
-      <c r="G259" t="s">
-        <v>284</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8578,11 +8008,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>44</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8602,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>283</v>
-      </c>
-      <c r="G261" t="s">
-        <v>284</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8630,11 +8056,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>44</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8654,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>283</v>
-      </c>
-      <c r="G263" t="s">
-        <v>284</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8682,11 +8104,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>44</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8706,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>283</v>
-      </c>
-      <c r="G265" t="s">
-        <v>284</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8734,11 +8152,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8760,11 +8176,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>295</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8786,11 +8200,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8812,11 +8224,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>295</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8838,11 +8248,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8864,11 +8272,9 @@
       <c r="F271" t="s">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
-        <v>32</v>
-      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8890,11 +8296,9 @@
       <c r="F272" t="s">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
-        <v>295</v>
-      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8916,11 +8320,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>302</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8942,11 +8344,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>32</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8968,11 +8368,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>295</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8994,11 +8392,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>32</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9020,11 +8416,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>295</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9046,11 +8440,9 @@
       <c r="F278" t="s">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>12</v>
-      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9072,11 +8464,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>32</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9098,11 +8488,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9124,11 +8512,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9150,11 +8536,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9176,11 +8560,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>32</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9202,11 +8584,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9228,11 +8608,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>32</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9254,11 +8632,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9280,11 +8656,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9306,11 +8680,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>12</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9332,11 +8704,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>32</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9358,11 +8728,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9384,11 +8752,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>32</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9410,11 +8776,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9436,11 +8800,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9462,11 +8824,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>32</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9488,11 +8848,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9514,11 +8872,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>32</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9540,11 +8896,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9566,11 +8920,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9592,11 +8944,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>32</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9618,11 +8968,9 @@
       <c r="F300" t="s">
         <v>11</v>
       </c>
-      <c r="G300" t="s">
-        <v>32</v>
-      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9644,11 +8992,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9670,11 +9016,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>32</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9696,11 +9040,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9722,11 +9064,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9748,11 +9088,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>32</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9774,11 +9112,9 @@
       <c r="F306" t="s">
         <v>11</v>
       </c>
-      <c r="G306" t="s">
-        <v>12</v>
-      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9800,11 +9136,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>295</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9826,11 +9160,9 @@
       <c r="F308" t="s">
         <v>11</v>
       </c>
-      <c r="G308" t="s">
-        <v>12</v>
-      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9852,11 +9184,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>38</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9878,11 +9208,9 @@
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" t="s">
-        <v>12</v>
-      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9904,11 +9232,9 @@
       <c r="F311" t="s">
         <v>11</v>
       </c>
-      <c r="G311" t="s">
-        <v>38</v>
-      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9930,11 +9256,9 @@
       <c r="F312" t="s">
         <v>11</v>
       </c>
-      <c r="G312" t="s">
-        <v>12</v>
-      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9956,11 +9280,9 @@
       <c r="F313" t="s">
         <v>11</v>
       </c>
-      <c r="G313" t="s">
-        <v>32</v>
-      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9982,11 +9304,9 @@
       <c r="F314" t="s">
         <v>11</v>
       </c>
-      <c r="G314" t="s">
-        <v>12</v>
-      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10008,11 +9328,9 @@
       <c r="F315" t="s">
         <v>11</v>
       </c>
-      <c r="G315" t="s">
-        <v>12</v>
-      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10034,11 +9352,9 @@
       <c r="F316" t="s">
         <v>11</v>
       </c>
-      <c r="G316" t="s">
-        <v>32</v>
-      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10060,11 +9376,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10086,11 +9400,9 @@
       <c r="F318" t="s">
         <v>11</v>
       </c>
-      <c r="G318" t="s">
-        <v>32</v>
-      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10112,11 +9424,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>12</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10138,11 +9448,9 @@
       <c r="F320" t="s">
         <v>11</v>
       </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10164,11 +9472,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>32</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10190,11 +9496,9 @@
       <c r="F322" t="s">
         <v>11</v>
       </c>
-      <c r="G322" t="s">
-        <v>12</v>
-      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10216,11 +9520,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10242,11 +9544,9 @@
       <c r="F324" t="s">
         <v>11</v>
       </c>
-      <c r="G324" t="s">
-        <v>32</v>
-      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10268,11 +9568,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10294,11 +9592,9 @@
       <c r="F326" t="s">
         <v>11</v>
       </c>
-      <c r="G326" t="s">
-        <v>32</v>
-      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10320,11 +9616,9 @@
       <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="G327" t="s">
-        <v>12</v>
-      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10346,11 +9640,9 @@
       <c r="F328" t="s">
         <v>11</v>
       </c>
-      <c r="G328" t="s">
-        <v>32</v>
-      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10372,11 +9664,9 @@
       <c r="F329" t="s">
         <v>11</v>
       </c>
-      <c r="G329" t="s">
-        <v>12</v>
-      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10398,11 +9688,9 @@
       <c r="F330" t="s">
         <v>11</v>
       </c>
-      <c r="G330" t="s">
-        <v>12</v>
-      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10424,11 +9712,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>32</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10450,11 +9736,9 @@
       <c r="F332" t="s">
         <v>11</v>
       </c>
-      <c r="G332" t="s">
-        <v>12</v>
-      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10476,11 +9760,9 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
-      <c r="G333" t="s">
-        <v>32</v>
-      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10502,11 +9784,9 @@
       <c r="F334" t="s">
         <v>11</v>
       </c>
-      <c r="G334" t="s">
-        <v>12</v>
-      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10528,11 +9808,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>32</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10554,11 +9832,9 @@
       <c r="F336" t="s">
         <v>11</v>
       </c>
-      <c r="G336" t="s">
-        <v>12</v>
-      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10580,11 +9856,9 @@
       <c r="F337" t="s">
         <v>11</v>
       </c>
-      <c r="G337" t="s">
-        <v>32</v>
-      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10606,11 +9880,9 @@
       <c r="F338" t="s">
         <v>11</v>
       </c>
-      <c r="G338" t="s">
-        <v>12</v>
-      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10632,11 +9904,9 @@
       <c r="F339" t="s">
         <v>11</v>
       </c>
-      <c r="G339" t="s">
-        <v>12</v>
-      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10658,11 +9928,9 @@
       <c r="F340" t="s">
         <v>11</v>
       </c>
-      <c r="G340" t="s">
-        <v>38</v>
-      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10684,11 +9952,9 @@
       <c r="F341" t="s">
         <v>11</v>
       </c>
-      <c r="G341" t="s">
-        <v>12</v>
-      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10710,11 +9976,9 @@
       <c r="F342" t="s">
         <v>11</v>
       </c>
-      <c r="G342" t="s">
-        <v>38</v>
-      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10736,11 +10000,9 @@
       <c r="F343" t="s">
         <v>11</v>
       </c>
-      <c r="G343" t="s">
-        <v>12</v>
-      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10762,11 +10024,9 @@
       <c r="F344" t="s">
         <v>11</v>
       </c>
-      <c r="G344" t="s">
-        <v>35</v>
-      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10788,11 +10048,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10814,11 +10072,9 @@
       <c r="F346" t="s">
         <v>11</v>
       </c>
-      <c r="G346" t="s">
-        <v>35</v>
-      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10840,11 +10096,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>12</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10866,11 +10120,9 @@
       <c r="F348" t="s">
         <v>11</v>
       </c>
-      <c r="G348" t="s">
-        <v>32</v>
-      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10892,11 +10144,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>12</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10918,11 +10168,9 @@
       <c r="F350" t="s">
         <v>11</v>
       </c>
-      <c r="G350" t="s">
-        <v>12</v>
-      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10944,11 +10192,9 @@
       <c r="F351" t="s">
         <v>11</v>
       </c>
-      <c r="G351" t="s">
-        <v>32</v>
-      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10970,11 +10216,9 @@
       <c r="F352" t="s">
         <v>11</v>
       </c>
-      <c r="G352" t="s">
-        <v>12</v>
-      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10996,11 +10240,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11022,11 +10264,9 @@
       <c r="F354" t="s">
         <v>11</v>
       </c>
-      <c r="G354" t="s">
-        <v>41</v>
-      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11048,11 +10288,9 @@
       <c r="F355" t="s">
         <v>11</v>
       </c>
-      <c r="G355" t="s">
-        <v>12</v>
-      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11074,11 +10312,9 @@
       <c r="F356" t="s">
         <v>11</v>
       </c>
-      <c r="G356" t="s">
-        <v>41</v>
-      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11100,11 +10336,9 @@
       <c r="F357" t="s">
         <v>11</v>
       </c>
-      <c r="G357" t="s">
-        <v>32</v>
-      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11126,11 +10360,9 @@
       <c r="F358" t="s">
         <v>11</v>
       </c>
-      <c r="G358" t="s">
-        <v>12</v>
-      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11152,11 +10384,9 @@
       <c r="F359" t="s">
         <v>11</v>
       </c>
-      <c r="G359" t="s">
-        <v>32</v>
-      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11178,11 +10408,9 @@
       <c r="F360" t="s">
         <v>11</v>
       </c>
-      <c r="G360" t="s">
-        <v>12</v>
-      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11204,11 +10432,9 @@
       <c r="F361" t="s">
         <v>11</v>
       </c>
-      <c r="G361" t="s">
-        <v>32</v>
-      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11230,11 +10456,9 @@
       <c r="F362" t="s">
         <v>11</v>
       </c>
-      <c r="G362" t="s">
-        <v>12</v>
-      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11256,11 +10480,9 @@
       <c r="F363" t="s">
         <v>11</v>
       </c>
-      <c r="G363" t="s">
-        <v>12</v>
-      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11282,11 +10504,9 @@
       <c r="F364" t="s">
         <v>11</v>
       </c>
-      <c r="G364" t="s">
-        <v>32</v>
-      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11308,11 +10528,9 @@
       <c r="F365" t="s">
         <v>11</v>
       </c>
-      <c r="G365" t="s">
-        <v>12</v>
-      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11334,11 +10552,9 @@
       <c r="F366" t="s">
         <v>11</v>
       </c>
-      <c r="G366" t="s">
-        <v>32</v>
-      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11360,11 +10576,9 @@
       <c r="F367" t="s">
         <v>11</v>
       </c>
-      <c r="G367" t="s">
-        <v>12</v>
-      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11386,11 +10600,9 @@
       <c r="F368" t="s">
         <v>11</v>
       </c>
-      <c r="G368" t="s">
-        <v>32</v>
-      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11412,11 +10624,9 @@
       <c r="F369" t="s">
         <v>11</v>
       </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11438,11 +10648,9 @@
       <c r="F370" t="s">
         <v>11</v>
       </c>
-      <c r="G370" t="s">
-        <v>32</v>
-      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11464,11 +10672,9 @@
       <c r="F371" t="s">
         <v>11</v>
       </c>
-      <c r="G371" t="s">
-        <v>32</v>
-      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11490,11 +10696,9 @@
       <c r="F372" t="s">
         <v>11</v>
       </c>
-      <c r="G372" t="s">
-        <v>32</v>
-      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11516,11 +10720,9 @@
       <c r="F373" t="s">
         <v>11</v>
       </c>
-      <c r="G373" t="s">
-        <v>32</v>
-      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11542,11 +10744,9 @@
       <c r="F374" t="s">
         <v>11</v>
       </c>
-      <c r="G374" t="s">
-        <v>12</v>
-      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11568,11 +10768,9 @@
       <c r="F375" t="s">
         <v>11</v>
       </c>
-      <c r="G375" t="s">
-        <v>32</v>
-      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11594,11 +10792,9 @@
       <c r="F376" t="s">
         <v>11</v>
       </c>
-      <c r="G376" t="s">
-        <v>32</v>
-      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11620,11 +10816,9 @@
       <c r="F377" t="s">
         <v>11</v>
       </c>
-      <c r="G377" t="s">
-        <v>32</v>
-      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11646,11 +10840,9 @@
       <c r="F378" t="s">
         <v>11</v>
       </c>
-      <c r="G378" t="s">
-        <v>32</v>
-      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11672,11 +10864,9 @@
       <c r="F379" t="s">
         <v>11</v>
       </c>
-      <c r="G379" t="s">
-        <v>12</v>
-      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11698,11 +10888,9 @@
       <c r="F380" t="s">
         <v>11</v>
       </c>
-      <c r="G380" t="s">
-        <v>32</v>
-      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11724,11 +10912,9 @@
       <c r="F381" t="s">
         <v>11</v>
       </c>
-      <c r="G381" t="s">
-        <v>12</v>
-      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11750,11 +10936,9 @@
       <c r="F382" t="s">
         <v>11</v>
       </c>
-      <c r="G382" t="s">
-        <v>12</v>
-      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11776,11 +10960,9 @@
       <c r="F383" t="s">
         <v>11</v>
       </c>
-      <c r="G383" t="s">
-        <v>32</v>
-      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11802,11 +10984,9 @@
       <c r="F384" t="s">
         <v>11</v>
       </c>
-      <c r="G384" t="s">
-        <v>12</v>
-      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11828,11 +11008,9 @@
       <c r="F385" t="s">
         <v>11</v>
       </c>
-      <c r="G385" t="s">
-        <v>12</v>
-      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11854,11 +11032,9 @@
       <c r="F386" t="s">
         <v>11</v>
       </c>
-      <c r="G386" t="s">
-        <v>41</v>
-      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11880,11 +11056,9 @@
       <c r="F387" t="s">
         <v>11</v>
       </c>
-      <c r="G387" t="s">
-        <v>12</v>
-      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11906,11 +11080,9 @@
       <c r="F388" t="s">
         <v>11</v>
       </c>
-      <c r="G388" t="s">
-        <v>41</v>
-      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11932,11 +11104,9 @@
       <c r="F389" t="s">
         <v>11</v>
       </c>
-      <c r="G389" t="s">
-        <v>41</v>
-      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11958,11 +11128,9 @@
       <c r="F390" t="s">
         <v>11</v>
       </c>
-      <c r="G390" t="s">
-        <v>12</v>
-      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11984,11 +11152,9 @@
       <c r="F391" t="s">
         <v>11</v>
       </c>
-      <c r="G391" t="s">
-        <v>146</v>
-      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12010,11 +11176,9 @@
       <c r="F392" t="s">
         <v>11</v>
       </c>
-      <c r="G392" t="s">
-        <v>32</v>
-      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12036,11 +11200,9 @@
       <c r="F393" t="s">
         <v>11</v>
       </c>
-      <c r="G393" t="s">
-        <v>146</v>
-      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12062,11 +11224,9 @@
       <c r="F394" t="s">
         <v>11</v>
       </c>
-      <c r="G394" t="s">
-        <v>32</v>
-      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12088,11 +11248,9 @@
       <c r="F395" t="s">
         <v>11</v>
       </c>
-      <c r="G395" t="s">
-        <v>146</v>
-      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12114,11 +11272,9 @@
       <c r="F396" t="s">
         <v>11</v>
       </c>
-      <c r="G396" t="s">
-        <v>41</v>
-      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12140,11 +11296,9 @@
       <c r="F397" t="s">
         <v>11</v>
       </c>
-      <c r="G397" t="s">
-        <v>146</v>
-      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12166,11 +11320,9 @@
       <c r="F398" t="s">
         <v>11</v>
       </c>
-      <c r="G398" t="s">
-        <v>41</v>
-      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12192,11 +11344,9 @@
       <c r="F399" t="s">
         <v>11</v>
       </c>
-      <c r="G399" t="s">
-        <v>41</v>
-      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12218,11 +11368,9 @@
       <c r="F400" t="s">
         <v>11</v>
       </c>
-      <c r="G400" t="s">
-        <v>146</v>
-      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12244,11 +11392,9 @@
       <c r="F401" t="s">
         <v>11</v>
       </c>
-      <c r="G401" t="s">
-        <v>41</v>
-      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12270,11 +11416,9 @@
       <c r="F402" t="s">
         <v>11</v>
       </c>
-      <c r="G402" t="s">
-        <v>146</v>
-      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12296,11 +11440,9 @@
       <c r="F403" t="s">
         <v>11</v>
       </c>
-      <c r="G403" t="s">
-        <v>41</v>
-      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12322,11 +11464,9 @@
       <c r="F404" t="s">
         <v>11</v>
       </c>
-      <c r="G404" t="s">
-        <v>146</v>
-      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12348,11 +11488,9 @@
       <c r="F405" t="s">
         <v>11</v>
       </c>
-      <c r="G405" t="s">
-        <v>32</v>
-      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12374,11 +11512,9 @@
       <c r="F406" t="s">
         <v>11</v>
       </c>
-      <c r="G406" t="s">
-        <v>146</v>
-      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12400,11 +11536,9 @@
       <c r="F407" t="s">
         <v>11</v>
       </c>
-      <c r="G407" t="s">
-        <v>32</v>
-      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12426,11 +11560,9 @@
       <c r="F408" t="s">
         <v>11</v>
       </c>
-      <c r="G408" t="s">
-        <v>146</v>
-      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12452,11 +11584,9 @@
       <c r="F409" t="s">
         <v>11</v>
       </c>
-      <c r="G409" t="s">
-        <v>41</v>
-      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12478,11 +11608,9 @@
       <c r="F410" t="s">
         <v>11</v>
       </c>
-      <c r="G410" t="s">
-        <v>146</v>
-      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12504,11 +11632,9 @@
       <c r="F411" t="s">
         <v>11</v>
       </c>
-      <c r="G411" t="s">
-        <v>12</v>
-      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12530,11 +11656,9 @@
       <c r="F412" t="s">
         <v>11</v>
       </c>
-      <c r="G412" t="s">
-        <v>146</v>
-      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12556,11 +11680,9 @@
       <c r="F413" t="s">
         <v>11</v>
       </c>
-      <c r="G413" t="s">
-        <v>12</v>
-      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12582,11 +11704,9 @@
       <c r="F414" t="s">
         <v>11</v>
       </c>
-      <c r="G414" t="s">
-        <v>146</v>
-      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12608,11 +11728,9 @@
       <c r="F415" t="s">
         <v>11</v>
       </c>
-      <c r="G415" t="s">
-        <v>32</v>
-      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12634,11 +11752,9 @@
       <c r="F416" t="s">
         <v>11</v>
       </c>
-      <c r="G416" t="s">
-        <v>146</v>
-      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12660,11 +11776,9 @@
       <c r="F417" t="s">
         <v>11</v>
       </c>
-      <c r="G417" t="s">
-        <v>41</v>
-      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12686,11 +11800,9 @@
       <c r="F418" t="s">
         <v>11</v>
       </c>
-      <c r="G418" t="s">
-        <v>12</v>
-      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12712,11 +11824,9 @@
       <c r="F419" t="s">
         <v>11</v>
       </c>
-      <c r="G419" t="s">
-        <v>41</v>
-      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12738,11 +11848,9 @@
       <c r="F420" t="s">
         <v>11</v>
       </c>
-      <c r="G420" t="s">
-        <v>12</v>
-      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12764,11 +11872,9 @@
       <c r="F421" t="s">
         <v>11</v>
       </c>
-      <c r="G421" t="s">
-        <v>41</v>
-      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12790,11 +11896,9 @@
       <c r="F422" t="s">
         <v>11</v>
       </c>
-      <c r="G422" t="s">
-        <v>12</v>
-      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12816,11 +11920,9 @@
       <c r="F423" t="s">
         <v>11</v>
       </c>
-      <c r="G423" t="s">
-        <v>32</v>
-      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12842,11 +11944,9 @@
       <c r="F424" t="s">
         <v>11</v>
       </c>
-      <c r="G424" t="s">
-        <v>12</v>
-      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12868,11 +11968,9 @@
       <c r="F425" t="s">
         <v>11</v>
       </c>
-      <c r="G425" t="s">
-        <v>32</v>
-      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12894,11 +11992,9 @@
       <c r="F426" t="s">
         <v>11</v>
       </c>
-      <c r="G426" t="s">
-        <v>12</v>
-      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12920,11 +12016,9 @@
       <c r="F427" t="s">
         <v>11</v>
       </c>
-      <c r="G427" t="s">
-        <v>32</v>
-      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12946,11 +12040,9 @@
       <c r="F428" t="s">
         <v>11</v>
       </c>
-      <c r="G428" t="s">
-        <v>12</v>
-      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12972,11 +12064,9 @@
       <c r="F429" t="s">
         <v>11</v>
       </c>
-      <c r="G429" t="s">
-        <v>32</v>
-      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12998,11 +12088,9 @@
       <c r="F430" t="s">
         <v>11</v>
       </c>
-      <c r="G430" t="s">
-        <v>12</v>
-      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13024,11 +12112,9 @@
       <c r="F431" t="s">
         <v>11</v>
       </c>
-      <c r="G431" t="s">
-        <v>32</v>
-      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13050,11 +12136,9 @@
       <c r="F432" t="s">
         <v>11</v>
       </c>
-      <c r="G432" t="s">
-        <v>12</v>
-      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13076,11 +12160,9 @@
       <c r="F433" t="s">
         <v>11</v>
       </c>
-      <c r="G433" t="s">
-        <v>32</v>
-      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13102,11 +12184,9 @@
       <c r="F434" t="s">
         <v>11</v>
       </c>
-      <c r="G434" t="s">
-        <v>12</v>
-      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13128,11 +12208,9 @@
       <c r="F435" t="s">
         <v>11</v>
       </c>
-      <c r="G435" t="s">
-        <v>32</v>
-      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13154,11 +12232,9 @@
       <c r="F436" t="s">
         <v>11</v>
       </c>
-      <c r="G436" t="s">
-        <v>12</v>
-      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13180,11 +12256,9 @@
       <c r="F437" t="s">
         <v>11</v>
       </c>
-      <c r="G437" t="s">
-        <v>32</v>
-      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13206,11 +12280,9 @@
       <c r="F438" t="s">
         <v>11</v>
       </c>
-      <c r="G438" t="s">
-        <v>12</v>
-      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13232,11 +12304,9 @@
       <c r="F439" t="s">
         <v>11</v>
       </c>
-      <c r="G439" t="s">
-        <v>32</v>
-      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13258,11 +12328,9 @@
       <c r="F440" t="s">
         <v>11</v>
       </c>
-      <c r="G440" t="s">
-        <v>12</v>
-      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13284,11 +12352,9 @@
       <c r="F441" t="s">
         <v>11</v>
       </c>
-      <c r="G441" t="s">
-        <v>32</v>
-      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13310,11 +12376,9 @@
       <c r="F442" t="s">
         <v>11</v>
       </c>
-      <c r="G442" t="s">
-        <v>12</v>
-      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13336,11 +12400,9 @@
       <c r="F443" t="s">
         <v>11</v>
       </c>
-      <c r="G443" t="s">
-        <v>32</v>
-      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13362,11 +12424,9 @@
       <c r="F444" t="s">
         <v>11</v>
       </c>
-      <c r="G444" t="s">
-        <v>12</v>
-      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13388,11 +12448,9 @@
       <c r="F445" t="s">
         <v>11</v>
       </c>
-      <c r="G445" t="s">
-        <v>32</v>
-      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13414,11 +12472,9 @@
       <c r="F446" t="s">
         <v>11</v>
       </c>
-      <c r="G446" t="s">
-        <v>12</v>
-      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13440,11 +12496,9 @@
       <c r="F447" t="s">
         <v>11</v>
       </c>
-      <c r="G447" t="s">
-        <v>32</v>
-      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13466,11 +12520,9 @@
       <c r="F448" t="s">
         <v>11</v>
       </c>
-      <c r="G448" t="s">
-        <v>12</v>
-      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13492,11 +12544,9 @@
       <c r="F449" t="s">
         <v>11</v>
       </c>
-      <c r="G449" t="s">
-        <v>32</v>
-      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13518,11 +12568,9 @@
       <c r="F450" t="s">
         <v>11</v>
       </c>
-      <c r="G450" t="s">
-        <v>12</v>
-      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13544,11 +12592,9 @@
       <c r="F451" t="s">
         <v>11</v>
       </c>
-      <c r="G451" t="s">
-        <v>32</v>
-      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13570,11 +12616,9 @@
       <c r="F452" t="s">
         <v>11</v>
       </c>
-      <c r="G452" t="s">
-        <v>12</v>
-      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13596,11 +12640,9 @@
       <c r="F453" t="s">
         <v>11</v>
       </c>
-      <c r="G453" t="s">
-        <v>32</v>
-      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13622,11 +12664,9 @@
       <c r="F454" t="s">
         <v>11</v>
       </c>
-      <c r="G454" t="s">
-        <v>12</v>
-      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13648,11 +12688,9 @@
       <c r="F455" t="s">
         <v>11</v>
       </c>
-      <c r="G455" t="s">
-        <v>32</v>
-      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13674,11 +12712,9 @@
       <c r="F456" t="s">
         <v>11</v>
       </c>
-      <c r="G456" t="s">
-        <v>12</v>
-      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13700,11 +12736,9 @@
       <c r="F457" t="s">
         <v>11</v>
       </c>
-      <c r="G457" t="s">
-        <v>12</v>
-      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13726,11 +12760,9 @@
       <c r="F458" t="s">
         <v>11</v>
       </c>
-      <c r="G458" t="s">
-        <v>32</v>
-      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
